--- a/MappingLiPD-Le.xlsx
+++ b/MappingLiPD-Le.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="300">
   <si>
     <t>Linked Earth Prop</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t>Domain of this property is a variable</t>
+  </si>
+  <si>
+    <t>ask nick</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2749,7 +2752,7 @@
         <v>269</v>
       </c>
       <c r="C139" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:3">

--- a/MappingLiPD-Le.xlsx
+++ b/MappingLiPD-Le.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7812"/>
+    <workbookView xWindow="600" yWindow="0" windowWidth="20200" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="301">
   <si>
     <t>Linked Earth Prop</t>
   </si>
@@ -917,13 +922,16 @@
   </si>
   <si>
     <t>ask nick</t>
+  </si>
+  <si>
+    <t>err</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,7 +1017,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1301,18 +1309,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="58.77734375" customWidth="1"/>
-    <col min="3" max="3" width="73.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="58.83203125" customWidth="1"/>
+    <col min="3" max="3" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1837,7 +1845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="57.6">
+    <row r="52" spans="1:3" ht="42">
       <c r="A52" s="2" t="s">
         <v>90</v>
       </c>
@@ -2742,6 +2750,9 @@
       </c>
       <c r="B138" s="2" t="s">
         <v>268</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3094,32 +3105,47 @@
     <hyperlink ref="B65" r:id="rId16" location="alt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>